--- a/biology/Zoologie/Brachylophosaurini/Brachylophosaurini.xlsx
+++ b/biology/Zoologie/Brachylophosaurini/Brachylophosaurini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Brachylophosaurini forment une tribu éteinte de « dinosaures à bec de canards » herbivores de la famille des Hadrosauridae et de la sous-famille des Saurolophinae. Ses fossiles ont  été retrouvés en  Amérique du Nord en particulier dans le Montana et en Alberta. Ils datent du Crétacé supérieur (Campanien), soit il y a environ entre 83,6 et 72,1 millions d'années.
-Ce clade a été créé en 2011 par Gates et ses collègues lors de la description d'un nouveau genre de saurolophinés, Acristavus[1].
+Ce clade a été créé en 2011 par Gates et ses collègues lors de la description d'un nouveau genre de saurolophinés, Acristavus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le clade est défini comme incluant les ornithopodes hadrosaurinés (aujourd'hui saurolophinés) plus proches de Brachylophosaurus, Maiasaura ou Acristavus que de Gryposaurus ou Saurolophus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le clade est défini comme incluant les ornithopodes hadrosaurinés (aujourd'hui saurolophinés) plus proches de Brachylophosaurus, Maiasaura ou Acristavus que de Gryposaurus ou Saurolophus.
 </t>
         </is>
       </c>
@@ -543,13 +557,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette tribu[1], qui n’apparaît pas dans certaines phylogénies postérieures[2],[3], regrouperait trois genres :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette tribu, qui n’apparaît pas dans certaines phylogénies postérieures regrouperait trois genres :
 † Acristavus (Montana et Utah) ;
 † Brachylophosaurus, le genre type (Montana et Alberta) ;
 † Maiasaura (Montana).
-Les genres Probrachylophosaurus (Montana)[4] et même Wulagasaurus (Chine)[5] sont parfois ajoutés à cette tribu.
+Les genres Probrachylophosaurus (Montana) et même Wulagasaurus (Chine) sont parfois ajoutés à cette tribu.
 </t>
         </is>
       </c>
